--- a/Rubric-Sprint 4.xlsx
+++ b/Rubric-Sprint 4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chelsey\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chelsey\Documents\IS411_413\FOMO\FOMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="168">
   <si>
     <t>Total</t>
   </si>
@@ -286,6 +286,252 @@
   </si>
   <si>
     <t>chelsey.johnson7@gmail.com</t>
+  </si>
+  <si>
+    <t>Author: cbojo7 &lt;chelsey.johnson7@gmail.com&gt;</t>
+  </si>
+  <si>
+    <t>Date:   Thu Feb 22 22:16:43 2018 -0700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    last bit for sprint 4</t>
+  </si>
+  <si>
+    <t>commit 44772ea79ef59a1530c8ed6e5187cda2ca205d73</t>
+  </si>
+  <si>
+    <t>Date:   Thu Feb 22 17:51:52 2018 -0700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    got the edit, create and delete to work</t>
+  </si>
+  <si>
+    <t>commit 4bd50855af06e651c14f246c4bb9cd51b31c2a1d</t>
+  </si>
+  <si>
+    <t>Date:   Thu Feb 22 09:48:35 2018 -0700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    added jquerey, auto fill in the edit page, choice in form</t>
+  </si>
+  <si>
+    <t>commit 17586367e0fc388737a6ff6fcbb86ae5d36fb6ba</t>
+  </si>
+  <si>
+    <t>Date:   Wed Feb 21 20:16:34 2018 -0700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    now passing id as a paramater</t>
+  </si>
+  <si>
+    <t>commit 59ac8724290c9c78a4d83dc22d585709b8727c81</t>
+  </si>
+  <si>
+    <t>Date:   Wed Feb 21 16:55:36 2018 -0700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    worked on edit files</t>
+  </si>
+  <si>
+    <t>commit 873a98235410caf78d9fa743bd35aca96a2d471f</t>
+  </si>
+  <si>
+    <t>Date:   Wed Feb 21 16:13:10 2018 -0700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    created the list page</t>
+  </si>
+  <si>
+    <t>commit bd8a4855655d6b1ac3b6fbb321c4661e8403139a</t>
+  </si>
+  <si>
+    <t>Date:   Mon Feb 19 10:26:50 2018 -0700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    added database and catalog model</t>
+  </si>
+  <si>
+    <t>commit ce8fd1ef3062b986a0706c59a3cb2f19087d00d9</t>
+  </si>
+  <si>
+    <t>Date:   Sat Feb 10 17:04:38 2018 -0700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    finished forms and authentication</t>
+  </si>
+  <si>
+    <t>commit 4f8f365125a6805b135b2a31ef051b0a3440fc2f</t>
+  </si>
+  <si>
+    <t>Date:   Sat Feb 10 15:17:49 2018 -0700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    finished sign up page</t>
+  </si>
+  <si>
+    <t>commit 9b5118298ea46deb626b3e6c576a2ebdca9dfaba</t>
+  </si>
+  <si>
+    <t>Date:   Sat Feb 10 10:49:06 2018 -0700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    added persistance</t>
+  </si>
+  <si>
+    <t>commit e0a162ab31bba257a7d58a643efebef51df0cf1a</t>
+  </si>
+  <si>
+    <t>Date:   Fri Feb 9 21:46:01 2018 -0700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    worked on login and signup</t>
+  </si>
+  <si>
+    <t>commit 45c2b399a65ac76e1770d287fc864131368dba68</t>
+  </si>
+  <si>
+    <t>Date:   Fri Feb 9 17:04:14 2018 -0700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    added the clean methods</t>
+  </si>
+  <si>
+    <t>commit 45610349f3837b3c6a16ecdfff905bd82421a08f</t>
+  </si>
+  <si>
+    <t>Date:   Fri Feb 9 14:51:08 2018 -0700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    IT WORKS!...at least the submit button</t>
+  </si>
+  <si>
+    <t>commit 322f741694b0e818475f8e38068b74714caaa124</t>
+  </si>
+  <si>
+    <t>Date:   Fri Feb 9 14:45:26 2018 -0700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    signup and login forms</t>
+  </si>
+  <si>
+    <t>commit cbdb5b7655a86a57abf819bbf33fee2a5ae3fc72</t>
+  </si>
+  <si>
+    <t>Date:   Thu Feb 8 08:52:52 2018 -0700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    work on forms</t>
+  </si>
+  <si>
+    <t>commit 12827427554953abd3cc55442e504e2b7d7fc0f8 (unittest)</t>
+  </si>
+  <si>
+    <t>Date:   Wed Feb 7 19:43:26 2018 -0700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    getting things figured out...hopefully</t>
+  </si>
+  <si>
+    <t>commit b749a41918cec19df0d8b29c9fc5185e0c4e6f29 (Sprint1Design)</t>
+  </si>
+  <si>
+    <t>Date:   Thu Feb 1 19:29:53 2018 -0700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Final changes to testcases for Sprint1 Design</t>
+  </si>
+  <si>
+    <t>commit 3ff5f56ec7a5e9a406c18f9b8ff4dc881a14d95a</t>
+  </si>
+  <si>
+    <t>Date:   Thu Feb 1 18:36:53 2018 -0700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    fixed all the unit tests from class lecture</t>
+  </si>
+  <si>
+    <t>commit e1d16d078ab86883e67c5c0ee075d1a844641b9b</t>
+  </si>
+  <si>
+    <t>Date:   Thu Feb 1 18:23:38 2018 -0700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    fixing all the tests after they all got deleted, one still does not pass</t>
+  </si>
+  <si>
+    <t>commit 38f71890dd38642608fae5fdfda7cfc5fa290eb2</t>
+  </si>
+  <si>
+    <t>Date:   Thu Feb 1 18:20:28 2018 -0700</t>
+  </si>
+  <si>
+    <t>commit df555bc5d0696b40b8a014a2a891fe3f5fb8551c</t>
+  </si>
+  <si>
+    <t>Date:   Thu Feb 1 07:59:47 2018 -0700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1/31 class tutorial</t>
+  </si>
+  <si>
+    <t>commit 9382b5df8e83befd0a3ab683f95fb87fea3cd32d</t>
+  </si>
+  <si>
+    <t>Date:   Tue Jan 30 22:02:19 2018 -0700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    created first test case</t>
+  </si>
+  <si>
+    <t>commit 21afd48fac89767bcaeedf0cd3ce72dbcf5b3b66</t>
+  </si>
+  <si>
+    <t>Merge: e09ccde 4c0398b</t>
+  </si>
+  <si>
+    <t>Date:   Tue Jan 30 21:16:35 2018 -0700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    resolving merge conflict</t>
+  </si>
+  <si>
+    <t>commit 4c0398bb4566005edc0433500e7783171e66021b</t>
+  </si>
+  <si>
+    <t>Date:   Tue Jan 30 20:46:31 2018 -0700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Made user class and purchases method</t>
+  </si>
+  <si>
+    <t>commit 0028f0e77e94cc602c8d9b19fc700fd52d6ce6cd</t>
+  </si>
+  <si>
+    <t>Date:   Tue Jan 30 19:25:15 2018 -0700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Create Database</t>
+  </si>
+  <si>
+    <t>commit e09ccdebcf496b360bb14e73b62159f9b7aa89ac</t>
+  </si>
+  <si>
+    <t>Date:   Mon Jan 29 16:25:50 2018 -0700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    modified database</t>
+  </si>
+  <si>
+    <t>commit ccc2e0dc3b0830b88e292a2d50640e9adacc5ca6 (practice)</t>
+  </si>
+  <si>
+    <t>Date:   Sat Jan 27 19:52:12 2018 -0700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Initial Commit</t>
+  </si>
+  <si>
+    <t>(END)</t>
   </si>
 </sst>
 </file>
@@ -659,11 +905,11 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="152" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="152" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="153">
@@ -1158,8 +1404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="201" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="92" zoomScaleNormal="201" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1180,16 +1426,16 @@
         <v>11</v>
       </c>
       <c r="C1" s="12"/>
-      <c r="D1" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="22" t="s">
+      <c r="D1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="22" t="s">
+      <c r="F1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="2"/>
@@ -1200,10 +1446,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="13"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1214,10 +1460,10 @@
         <v>83</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1228,34 +1474,34 @@
         <v>84</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>85</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="16"/>
       <c r="C6" s="17"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -2221,14 +2467,560 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A162"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A6"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
